--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14779.22239860769</v>
+        <v>-109467.2962874545</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9886255.482249361</v>
+        <v>9838539.76499437</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22080131.22488754</v>
+        <v>22087121.9415115</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4248050.905839136</v>
+        <v>4247833.09806419</v>
       </c>
     </row>
     <row r="11">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>85.97480228639998</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K11" t="n">
         <v>77.60291342766286</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>85.97480228639998</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K20" t="n">
         <v>77.60291342766286</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>85.97480228639999</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K23" t="n">
         <v>77.60291342766286</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>85.97480228639999</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K41" t="n">
         <v>77.60291342766286</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679383</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601003</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>62.94669922618533</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S12" t="n">
         <v>160.5508486671644</v>
@@ -23439,7 +23439,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J13" t="n">
-        <v>57.83529218611377</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.08791033046781</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R13" t="n">
         <v>154.7009843173077</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>62.94669922618533</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S21" t="n">
         <v>160.5508486671644</v>
@@ -24150,7 +24150,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J22" t="n">
-        <v>57.83529218611377</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.08791033046781</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R22" t="n">
         <v>154.7009843173077</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>62.94669922618534</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S24" t="n">
         <v>160.5508486671644</v>
@@ -24387,7 +24387,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J25" t="n">
-        <v>57.83529218611378</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.08791033046782</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R25" t="n">
         <v>154.7009843173077</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>62.94669922618534</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S42" t="n">
         <v>160.5508486671644</v>
@@ -25809,7 +25809,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J43" t="n">
-        <v>57.83529218611378</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.08791033046782</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R43" t="n">
         <v>154.7009843173077</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4466155766215</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848996</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>368347.9492583028</v>
+        <v>367970.7766643245</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>53753.70276572321</v>
       </c>
       <c r="E2" t="n">
-        <v>59077.77787856178</v>
+        <v>59077.77787856179</v>
       </c>
       <c r="F2" t="n">
         <v>59077.77787856178</v>
@@ -26334,13 +26334,13 @@
         <v>59077.77787856178</v>
       </c>
       <c r="I2" t="n">
+        <v>59077.77787856178</v>
+      </c>
+      <c r="J2" t="n">
+        <v>59077.77787856178</v>
+      </c>
+      <c r="K2" t="n">
         <v>59077.77787856179</v>
-      </c>
-      <c r="J2" t="n">
-        <v>59077.77787856179</v>
-      </c>
-      <c r="K2" t="n">
-        <v>59077.7778785618</v>
       </c>
       <c r="L2" t="n">
         <v>59077.77787856178</v>
@@ -26352,10 +26352,10 @@
         <v>59077.77787856178</v>
       </c>
       <c r="O2" t="n">
-        <v>59077.77787856177</v>
+        <v>59077.77787856178</v>
       </c>
       <c r="P2" t="n">
-        <v>59776.84954095797</v>
+        <v>59077.77787856178</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27411.46577882611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>13504.10939295352</v>
       </c>
       <c r="P4" t="n">
-        <v>9686.852012554569</v>
+        <v>13504.10939295352</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>6074.278792600922</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.102563257328</v>
+        <v>6074.278792600922</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="E6" t="n">
-        <v>-184358.1242891926</v>
+        <v>-198976.3907479435</v>
       </c>
       <c r="F6" t="n">
-        <v>39499.38969300734</v>
+        <v>24881.12323425645</v>
       </c>
       <c r="G6" t="n">
-        <v>39499.38969300735</v>
+        <v>24881.12323425643</v>
       </c>
       <c r="H6" t="n">
-        <v>39499.38969300734</v>
+        <v>24881.12323425645</v>
       </c>
       <c r="I6" t="n">
-        <v>39499.38969300735</v>
+        <v>24881.12323425643</v>
       </c>
       <c r="J6" t="n">
-        <v>39499.38969300735</v>
+        <v>24881.12323425645</v>
       </c>
       <c r="K6" t="n">
-        <v>39499.38969300737</v>
+        <v>24881.12323425645</v>
       </c>
       <c r="L6" t="n">
-        <v>39499.38969300734</v>
+        <v>24881.12323425645</v>
       </c>
       <c r="M6" t="n">
-        <v>39499.38969300735</v>
+        <v>24881.12323425643</v>
       </c>
       <c r="N6" t="n">
-        <v>39499.38969300734</v>
+        <v>24881.12323425643</v>
       </c>
       <c r="O6" t="n">
-        <v>39499.38969300734</v>
+        <v>24881.12323425643</v>
       </c>
       <c r="P6" t="n">
-        <v>15706.42918631997</v>
+        <v>24881.12323425645</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>278.6366418624276</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>278.6366418624276</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.18457663561503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31761,7 +31761,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J11" t="n">
-        <v>95.07110224028631</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K11" t="n">
         <v>142.4869376173177</v>
@@ -31834,7 +31834,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H12" t="n">
-        <v>5.788281937557223</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I12" t="n">
         <v>20.63488338320808</v>
@@ -31873,7 +31873,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H13" t="n">
         <v>4.467321897400891</v>
@@ -31919,7 +31919,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J13" t="n">
-        <v>35.52388793055901</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K13" t="n">
         <v>58.37666037707908</v>
@@ -31940,7 +31940,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.07413292122657</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R13" t="n">
         <v>22.59240705986175</v>
@@ -32472,7 +32472,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J20" t="n">
-        <v>95.07110224028631</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K20" t="n">
         <v>142.4869376173177</v>
@@ -32545,7 +32545,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H21" t="n">
-        <v>5.788281937557223</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I21" t="n">
         <v>20.63488338320808</v>
@@ -32584,7 +32584,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H22" t="n">
         <v>4.467321897400891</v>
@@ -32630,7 +32630,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J22" t="n">
-        <v>35.52388793055901</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K22" t="n">
         <v>58.37666037707908</v>
@@ -32651,7 +32651,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.07413292122657</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R22" t="n">
         <v>22.59240705986175</v>
@@ -32709,7 +32709,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J23" t="n">
-        <v>95.07110224028629</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K23" t="n">
         <v>142.4869376173177</v>
@@ -32782,7 +32782,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H24" t="n">
-        <v>5.788281937557224</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I24" t="n">
         <v>20.63488338320808</v>
@@ -32821,7 +32821,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H25" t="n">
         <v>4.467321897400891</v>
@@ -32867,7 +32867,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J25" t="n">
-        <v>35.523887930559</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K25" t="n">
         <v>58.37666037707908</v>
@@ -32888,7 +32888,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.07413292122656</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R25" t="n">
         <v>22.59240705986175</v>
@@ -34131,7 +34131,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J41" t="n">
-        <v>95.07110224028629</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K41" t="n">
         <v>142.4869376173177</v>
@@ -34204,7 +34204,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H42" t="n">
-        <v>5.788281937557224</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I42" t="n">
         <v>20.63488338320808</v>
@@ -34243,7 +34243,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H43" t="n">
         <v>4.467321897400891</v>
@@ -34289,7 +34289,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J43" t="n">
-        <v>35.523887930559</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K43" t="n">
         <v>58.37666037707908</v>
@@ -34310,7 +34310,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q43" t="n">
-        <v>42.07413292122656</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R43" t="n">
         <v>22.59240705986175</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718788</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261111</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109467.2962874545</v>
+        <v>1919.302165565725</v>
       </c>
     </row>
     <row r="7">
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>85.97480228639998</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K14" t="n">
         <v>77.60291342766286</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>85.97480228639999</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K20" t="n">
         <v>77.60291342766286</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>85.97480228639998</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K23" t="n">
         <v>77.60291342766286</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>62.94669922618533</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S15" t="n">
         <v>160.5508486671644</v>
@@ -23676,7 +23676,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J16" t="n">
-        <v>57.83529218611377</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.08791033046781</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R16" t="n">
         <v>154.7009843173077</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>62.94669922618534</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S21" t="n">
         <v>160.5508486671644</v>
@@ -24150,7 +24150,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J22" t="n">
-        <v>57.83529218611378</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.08791033046782</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R22" t="n">
         <v>154.7009843173077</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>62.94669922618533</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S24" t="n">
         <v>160.5508486671644</v>
@@ -24387,7 +24387,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J25" t="n">
-        <v>57.83529218611377</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.08791033046781</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R25" t="n">
         <v>154.7009843173077</v>
@@ -26322,7 +26322,7 @@
         <v>53753.70276572321</v>
       </c>
       <c r="E2" t="n">
-        <v>59077.77787856179</v>
+        <v>59077.77787856178</v>
       </c>
       <c r="F2" t="n">
         <v>59077.77787856178</v>
@@ -26340,7 +26340,7 @@
         <v>59077.77787856178</v>
       </c>
       <c r="K2" t="n">
-        <v>59077.77787856179</v>
+        <v>59077.77787856178</v>
       </c>
       <c r="L2" t="n">
         <v>59077.77787856178</v>
@@ -26352,10 +26352,10 @@
         <v>59077.77787856178</v>
       </c>
       <c r="O2" t="n">
-        <v>59077.77787856178</v>
+        <v>59077.77787856179</v>
       </c>
       <c r="P2" t="n">
-        <v>59077.77787856178</v>
+        <v>59077.77787856177</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38027.53341689012</v>
+        <v>-24391.92684385883</v>
       </c>
       <c r="C6" t="n">
-        <v>-38027.53341689012</v>
+        <v>-24391.92684385883</v>
       </c>
       <c r="D6" t="n">
-        <v>-38027.53341689012</v>
+        <v>-24391.92684385883</v>
       </c>
       <c r="E6" t="n">
-        <v>-198976.3907479435</v>
+        <v>-185819.9509350677</v>
       </c>
       <c r="F6" t="n">
-        <v>24881.12323425645</v>
+        <v>38037.56304713227</v>
       </c>
       <c r="G6" t="n">
-        <v>24881.12323425643</v>
+        <v>38037.56304713225</v>
       </c>
       <c r="H6" t="n">
-        <v>24881.12323425645</v>
+        <v>38037.56304713227</v>
       </c>
       <c r="I6" t="n">
-        <v>24881.12323425643</v>
+        <v>38037.56304713225</v>
       </c>
       <c r="J6" t="n">
-        <v>24881.12323425645</v>
+        <v>38037.56304713227</v>
       </c>
       <c r="K6" t="n">
-        <v>24881.12323425645</v>
+        <v>38037.56304713225</v>
       </c>
       <c r="L6" t="n">
-        <v>24881.12323425645</v>
+        <v>38037.56304713227</v>
       </c>
       <c r="M6" t="n">
-        <v>24881.12323425643</v>
+        <v>38037.56304713225</v>
       </c>
       <c r="N6" t="n">
-        <v>24881.12323425643</v>
+        <v>38037.56304713227</v>
       </c>
       <c r="O6" t="n">
-        <v>24881.12323425643</v>
+        <v>38037.56304713227</v>
       </c>
       <c r="P6" t="n">
-        <v>24881.12323425645</v>
+        <v>38037.56304713225</v>
       </c>
     </row>
   </sheetData>
@@ -31998,7 +31998,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J14" t="n">
-        <v>95.07110224028631</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K14" t="n">
         <v>142.4869376173177</v>
@@ -32071,7 +32071,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H15" t="n">
-        <v>5.788281937557223</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I15" t="n">
         <v>20.63488338320808</v>
@@ -32110,7 +32110,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H16" t="n">
         <v>4.467321897400891</v>
@@ -32156,7 +32156,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J16" t="n">
-        <v>35.52388793055901</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K16" t="n">
         <v>58.37666037707908</v>
@@ -32177,7 +32177,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.07413292122657</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R16" t="n">
         <v>22.59240705986175</v>
@@ -32472,7 +32472,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J20" t="n">
-        <v>95.07110224028629</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K20" t="n">
         <v>142.4869376173177</v>
@@ -32545,7 +32545,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H21" t="n">
-        <v>5.788281937557224</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I21" t="n">
         <v>20.63488338320808</v>
@@ -32584,7 +32584,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H22" t="n">
         <v>4.467321897400891</v>
@@ -32630,7 +32630,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J22" t="n">
-        <v>35.523887930559</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K22" t="n">
         <v>58.37666037707908</v>
@@ -32651,7 +32651,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.07413292122656</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R22" t="n">
         <v>22.59240705986175</v>
@@ -32709,7 +32709,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J23" t="n">
-        <v>95.07110224028631</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K23" t="n">
         <v>142.4869376173177</v>
@@ -32782,7 +32782,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H24" t="n">
-        <v>5.788281937557223</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I24" t="n">
         <v>20.63488338320808</v>
@@ -32821,7 +32821,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H25" t="n">
         <v>4.467321897400891</v>
@@ -32867,7 +32867,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J25" t="n">
-        <v>35.52388793055901</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K25" t="n">
         <v>58.37666037707908</v>
@@ -32888,7 +32888,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.07413292122657</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R25" t="n">
         <v>22.59240705986175</v>
